--- a/biology/Histoire de la zoologie et de la botanique/Max_Vachon/Max_Vachon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Max_Vachon/Max_Vachon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Max Vachon est un zoologiste français, né le 4 janvier 1908 à Dijon et mort le 3 novembre 1991 à Paris, à l'hôpital Bichat.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Max Vachon commence ses études à Dijon et, influencé par ses professeurs, commence à s'intéresser à la zoologie. Après avoir eu sa licence ès sciences, il est répétiteur dans un lycée à Chaumont et à Dijon (1931-1935). Il est boursier, de 1935 à 1938, à la faculté des sciences de Dijon et séjourne régulièrement à l'observatoire océanologique de Banyuls-sur-Mer. Il soutient sa thèse à la Sorbonne en 1938, elle porte sur le développement et la reproduction des pseudoscorpions qu’il a conduite sous la direction de Robert Denis (1893-1969). Il obtient alors un poste d’assistant au Laboratoire de zoologie (vers et crustacés) du Muséum national d'histoire naturelle. En 1955, il succède à Louis Fage (1883-1964), à la tête de ce laboratoire (chaire de Lamarck) et devient Professeur.
 Il étudie principalement les arachnides d’abord les pseudoscorpions, puis les scorpions d’Afrique du Nord pour lesquels il fait paraître en 1952 une importante monographie. Il s’intéresse tout particulièrement aux trichobothries. Ses centres d’intérêt vont s’agrandir au fil du temps et il étudiera d’autres arachnides comme les solifuges, mais aussi la segmentation chez les limules, le comportement des guêpes parasites d’araignées, etc.
@@ -546,7 +560,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Philippe Jaussaud &amp; Édouard R. Brygoo (2004). Du Jardin au Muséum en 516 biographies. Muséum national d’histoire naturelle de Paris : 630 p.  (ISBN 2-85653-565-8)
 Mark Judson (1995), Max Vachon (1908-1991), Bulletin of the British Arachnological Society. 10 (3) : 113-114.  (ISSN 0524-4994)</t>
